--- a/TACS-DEV-Beat-v1.0/Calculate/2017-6-23-front-calculate-ver20.0/Final_______Comprehensive Tax Return for Business Name (BPT).xlsx
+++ b/TACS-DEV-Beat-v1.0/Calculate/2017-6-23-front-calculate-ver20.0/Final_______Comprehensive Tax Return for Business Name (BPT).xlsx
@@ -3030,21 +3030,6 @@
     <t>if S1F56 is positive, S1F58=S1F8-S1F56, otherwise S1F58=S1F8+S1F56</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Should be equal as S8F13 of previous BPT return according to the sub type 0f business
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">if this value is equal to S8F3 then system should not calculate the depriciation </t>
-    </r>
-  </si>
-  <si>
     <t>Re-evaluated loss</t>
   </si>
   <si>
@@ -3228,12 +3213,16 @@
     <t>Should be equal as S8F18, if not, S8F18 prevails</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Should be equal as S8F13 of previous BPT return according to the sub type 0f business
+if this value is equal to S8F3 then system should not calculate the depriciation </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3347,8 +3336,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3406,6 +3402,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3496,7 +3510,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3667,9 +3681,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3733,19 +3744,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3757,12 +3771,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3772,14 +3780,23 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4120,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G417" activeCellId="1" sqref="G405 G417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4165,15 +4182,15 @@
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="3"/>
@@ -4187,14 +4204,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>713</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>714</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E5" s="34"/>
@@ -4202,12 +4219,12 @@
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E6" s="34"/>
@@ -4215,57 +4232,57 @@
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>717</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>718</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>719</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>721</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E10" s="34"/>
@@ -4273,52 +4290,52 @@
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E11" s="34"/>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E12" s="34"/>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E13" s="34"/>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>617</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E14" s="34"/>
@@ -4357,10 +4374,10 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
-      <c r="D17" s="62"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
@@ -4375,14 +4392,14 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E19" s="34"/>
@@ -4390,12 +4407,12 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E20" s="34"/>
@@ -4403,14 +4420,14 @@
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E21" s="34"/>
@@ -4418,12 +4435,12 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E22" s="34"/>
@@ -4431,212 +4448,212 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="67" t="s">
         <v>730</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E23" s="34"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E24" s="34"/>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="61" t="s">
         <v>721</v>
       </c>
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E26" s="34"/>
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E27" s="34"/>
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E28" s="34"/>
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E29" s="34"/>
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E30" s="34"/>
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E31" s="34"/>
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E32" s="34"/>
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E33" s="34"/>
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E34" s="34"/>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E35" s="34"/>
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62" t="s">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E36" s="34"/>
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="61" t="s">
         <v>157</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="G37" s="63"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="61" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="G38" s="63"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="16" t="s">
@@ -4720,14 +4737,14 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="61" t="s">
         <v>738</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E45" s="34"/>
@@ -4735,12 +4752,12 @@
       <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="61" t="s">
         <v>161</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E46" s="34"/>
@@ -4748,14 +4765,14 @@
       <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="61" t="s">
         <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E47" s="34"/>
@@ -4763,12 +4780,12 @@
       <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="61" t="s">
         <v>163</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E48" s="34"/>
@@ -4776,26 +4793,26 @@
       <c r="G48" s="34"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="61" t="s">
         <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E49" s="34"/>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E50" s="34"/>
@@ -4853,124 +4870,124 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="E55" s="62" t="s">
+      <c r="E55" s="61" t="s">
         <v>721</v>
       </c>
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62" t="s">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E56" s="34"/>
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="E57" s="62" t="s">
+      <c r="E57" s="61" t="s">
         <v>721</v>
       </c>
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62" t="s">
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E58" s="34"/>
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="64" t="s">
         <v>747</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="67" t="s">
         <v>730</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65" t="s">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="70"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="70"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62" t="s">
+      <c r="C61" s="61"/>
+      <c r="D61" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E61" s="34"/>
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62" t="s">
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E62" s="34"/>
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="61" t="s">
         <v>171</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>750</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E63" s="7"/>
@@ -4978,12 +4995,12 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="61" t="s">
         <v>172</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="62" t="s">
+      <c r="D64" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E64" s="7"/>
@@ -4991,28 +5008,28 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="61" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="G65" s="63"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="61" t="s">
         <v>174</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="G66" s="63"/>
+      <c r="G66" s="62"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="19" t="s">
@@ -5126,7 +5143,7 @@
         <v>715</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="69" t="s">
+      <c r="F73" s="68" t="s">
         <v>789</v>
       </c>
       <c r="G73" s="15"/>
@@ -5141,7 +5158,7 @@
         <v>716</v>
       </c>
       <c r="E74" s="14"/>
-      <c r="F74" s="69" t="s">
+      <c r="F74" s="68" t="s">
         <v>790</v>
       </c>
       <c r="G74" s="15"/>
@@ -5164,116 +5181,116 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="61" t="s">
         <v>765</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62" t="s">
+      <c r="C77" s="61"/>
+      <c r="D77" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E77" s="34"/>
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="61" t="s">
         <v>179</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62" t="s">
+      <c r="C78" s="61"/>
+      <c r="D78" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E78" s="34"/>
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9" s="1" customFormat="1">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="64" t="s">
         <v>766</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="70"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="69"/>
     </row>
     <row r="80" spans="1:9" s="1" customFormat="1">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="64" t="s">
         <v>768</v>
       </c>
-      <c r="B80" s="71"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="69"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="61" t="s">
         <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62" t="s">
+      <c r="C81" s="61"/>
+      <c r="D81" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E81" s="34"/>
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62" t="s">
+      <c r="C82" s="61"/>
+      <c r="D82" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E82" s="34"/>
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62" t="s">
+      <c r="C83" s="61"/>
+      <c r="D83" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E83" s="34"/>
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62" t="s">
+      <c r="C84" s="61"/>
+      <c r="D84" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E84" s="34"/>
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:21" s="1" customFormat="1">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>770</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="62" t="s">
+      <c r="D85" s="61" t="s">
         <v>715</v>
       </c>
       <c r="E85" s="7"/>
@@ -5281,11 +5298,11 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:21" s="1" customFormat="1">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="61" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="61" t="s">
         <v>716</v>
       </c>
       <c r="E86" s="7"/>
@@ -5334,15 +5351,15 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="3"/>
@@ -5411,7 +5428,7 @@
     <row r="95" spans="1:21" s="1" customFormat="1">
       <c r="A95" s="5"/>
       <c r="B95" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5532,7 +5549,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="7"/>
-      <c r="G104" s="67" t="s">
+      <c r="G104" s="66" t="s">
         <v>777</v>
       </c>
     </row>
@@ -5546,7 +5563,7 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="7"/>
-      <c r="G105" s="67" t="s">
+      <c r="G105" s="66" t="s">
         <v>778</v>
       </c>
     </row>
@@ -5585,7 +5602,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="7"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="67" t="s">
+      <c r="G108" s="66" t="s">
         <v>779</v>
       </c>
     </row>
@@ -5648,15 +5665,15 @@
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="84" t="s">
+      <c r="A114" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="84"/>
-      <c r="C114" s="84"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="84"/>
-      <c r="F114" s="84"/>
-      <c r="G114" s="84"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1">
       <c r="A115" s="4" t="s">
@@ -5711,7 +5728,7 @@
         <v>628</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="80" t="s">
+      <c r="G118" s="91" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5732,7 +5749,7 @@
     </row>
     <row r="120" spans="1:7" s="1" customFormat="1">
       <c r="A120" s="55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>632</v>
@@ -5894,17 +5911,17 @@
       <c r="E132" s="34"/>
       <c r="G132" s="26"/>
     </row>
-    <row r="133" spans="1:7" s="76" customFormat="1">
-      <c r="A133" s="74" t="s">
+    <row r="133" spans="1:7" s="75" customFormat="1">
+      <c r="A133" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="B133" s="74" t="s">
-        <v>792</v>
-      </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="75"/>
-      <c r="G133" s="77"/>
+      <c r="B133" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="74"/>
+      <c r="G133" s="76"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="16" t="s">
@@ -5917,7 +5934,7 @@
       <c r="D134" s="16"/>
       <c r="E134" s="20"/>
       <c r="F134" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G134" s="18"/>
     </row>
@@ -5926,7 +5943,7 @@
         <v>638</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -5955,12 +5972,12 @@
         <v>640</v>
       </c>
       <c r="B138" s="53" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="23"/>
       <c r="G138" s="54" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="1" customFormat="1" ht="34.5">
@@ -5999,7 +6016,7 @@
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="81" t="s">
+      <c r="F141" s="92" t="s">
         <v>643</v>
       </c>
       <c r="G141" s="18"/>
@@ -6009,7 +6026,7 @@
         <v>220</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C142" s="53"/>
       <c r="D142" s="53"/>
@@ -6018,34 +6035,34 @@
         <v>645</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="76" customFormat="1">
-      <c r="A143" s="74" t="s">
+    <row r="143" spans="1:7" s="75" customFormat="1">
+      <c r="A143" s="73" t="s">
+        <v>793</v>
+      </c>
+      <c r="B143" s="73" t="s">
         <v>794</v>
       </c>
-      <c r="B143" s="74" t="s">
-        <v>795</v>
-      </c>
-      <c r="E143" s="75"/>
-      <c r="G143" s="78"/>
+      <c r="E143" s="74"/>
+      <c r="G143" s="77"/>
     </row>
     <row r="144" spans="1:7" s="1" customFormat="1">
       <c r="A144" s="16" t="s">
         <v>221</v>
       </c>
       <c r="B144" s="56" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
       <c r="E144" s="20"/>
       <c r="F144" s="57" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G144" s="21"/>
     </row>
     <row r="145" spans="1:21" s="1" customFormat="1" ht="120.75">
       <c r="A145" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>646</v>
@@ -6056,7 +6073,7 @@
       <c r="F145" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="G145" s="58" t="s">
+      <c r="G145" s="93" t="s">
         <v>648</v>
       </c>
     </row>
@@ -6071,7 +6088,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="7"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="58" t="s">
+      <c r="G146" s="93" t="s">
         <v>692</v>
       </c>
     </row>
@@ -6088,7 +6105,7 @@
       <c r="F147" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="G147" s="59"/>
+      <c r="G147" s="58"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
@@ -6163,7 +6180,7 @@
       <c r="A154" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B154" s="60" t="s">
+      <c r="B154" s="59" t="s">
         <v>658</v>
       </c>
       <c r="C154" s="10"/>
@@ -6177,20 +6194,20 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:21" s="1" customFormat="1">
-      <c r="B155" s="61"/>
+      <c r="B155" s="60"/>
       <c r="E155" s="7"/>
       <c r="G155" s="54"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="84" t="s">
-        <v>815</v>
-      </c>
-      <c r="B156" s="84"/>
-      <c r="C156" s="84"/>
-      <c r="D156" s="84"/>
-      <c r="E156" s="84"/>
-      <c r="F156" s="84"/>
-      <c r="G156" s="84"/>
+      <c r="A156" s="82" t="s">
+        <v>814</v>
+      </c>
+      <c r="B156" s="82"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="82"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="82"/>
+      <c r="G156" s="82"/>
     </row>
     <row r="157" spans="1:21">
       <c r="A157" s="3"/>
@@ -6305,7 +6322,7 @@
         <v>19</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
@@ -6500,7 +6517,7 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="7"/>
-      <c r="G186" s="67" t="s">
+      <c r="G186" s="66" t="s">
         <v>780</v>
       </c>
     </row>
@@ -6514,7 +6531,7 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="7"/>
-      <c r="G187" s="67" t="s">
+      <c r="G187" s="66" t="s">
         <v>781</v>
       </c>
     </row>
@@ -6547,7 +6564,7 @@
       <c r="D190" s="4"/>
       <c r="E190" s="7"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="67" t="s">
+      <c r="G190" s="66" t="s">
         <v>782</v>
       </c>
     </row>
@@ -6610,15 +6627,15 @@
       <c r="B195" s="4"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="84" t="s">
+      <c r="A196" s="82" t="s">
         <v>368</v>
       </c>
-      <c r="B196" s="84"/>
-      <c r="C196" s="84"/>
-      <c r="D196" s="84"/>
-      <c r="E196" s="84"/>
-      <c r="F196" s="84"/>
-      <c r="G196" s="84"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="82"/>
+      <c r="D196" s="82"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="82"/>
+      <c r="G196" s="82"/>
     </row>
     <row r="197" spans="1:7" s="1" customFormat="1">
       <c r="A197" s="4" t="s">
@@ -6673,7 +6690,7 @@
         <v>628</v>
       </c>
       <c r="F200" s="3"/>
-      <c r="G200" s="80" t="s">
+      <c r="G200" s="91" t="s">
         <v>660</v>
       </c>
     </row>
@@ -6694,7 +6711,7 @@
     </row>
     <row r="202" spans="1:7" s="1" customFormat="1">
       <c r="A202" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>632</v>
@@ -6855,17 +6872,17 @@
       <c r="E214" s="34"/>
       <c r="G214" s="26"/>
     </row>
-    <row r="215" spans="1:7" s="76" customFormat="1">
-      <c r="A215" s="74" t="s">
+    <row r="215" spans="1:7" s="75" customFormat="1">
+      <c r="A215" s="73" t="s">
         <v>684</v>
       </c>
-      <c r="B215" s="74" t="s">
-        <v>792</v>
-      </c>
-      <c r="C215" s="74"/>
-      <c r="D215" s="74"/>
-      <c r="E215" s="75"/>
-      <c r="G215" s="77"/>
+      <c r="B215" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="C215" s="73"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="74"/>
+      <c r="G215" s="76"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="16" t="s">
@@ -6878,7 +6895,7 @@
       <c r="D216" s="16"/>
       <c r="E216" s="20"/>
       <c r="F216" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G216" s="18"/>
     </row>
@@ -6960,7 +6977,7 @@
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="20"/>
-      <c r="F223" s="81" t="s">
+      <c r="F223" s="92" t="s">
         <v>661</v>
       </c>
       <c r="G223" s="18"/>
@@ -6976,18 +6993,18 @@
       <c r="D224" s="53"/>
       <c r="E224" s="34"/>
       <c r="G224" s="54" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="76" customFormat="1">
-      <c r="A225" s="74" t="s">
-        <v>798</v>
-      </c>
-      <c r="B225" s="74" t="s">
-        <v>795</v>
-      </c>
-      <c r="E225" s="75"/>
-      <c r="G225" s="78"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="75" customFormat="1">
+      <c r="A225" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="B225" s="73" t="s">
+        <v>794</v>
+      </c>
+      <c r="E225" s="74"/>
+      <c r="G225" s="77"/>
     </row>
     <row r="226" spans="1:9" s="1" customFormat="1">
       <c r="A226" s="16" t="s">
@@ -7000,7 +7017,7 @@
       <c r="D226" s="19"/>
       <c r="E226" s="20"/>
       <c r="F226" s="57" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G226" s="21"/>
     </row>
@@ -7017,7 +7034,7 @@
       <c r="F227" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="G227" s="82" t="s">
+      <c r="G227" s="93" t="s">
         <v>663</v>
       </c>
     </row>
@@ -7032,7 +7049,7 @@
       <c r="D228" s="4"/>
       <c r="E228" s="7"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="82" t="s">
+      <c r="G228" s="93" t="s">
         <v>691</v>
       </c>
     </row>
@@ -7061,7 +7078,7 @@
         <v>651</v>
       </c>
       <c r="E230" s="7"/>
-      <c r="G230" s="83" t="s">
+      <c r="G230" s="42" t="s">
         <v>687</v>
       </c>
     </row>
@@ -7124,7 +7141,7 @@
       <c r="A236" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B236" s="60" t="s">
+      <c r="B236" s="59" t="s">
         <v>669</v>
       </c>
       <c r="C236" s="10"/>
@@ -7138,20 +7155,20 @@
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" s="1" customFormat="1">
-      <c r="B237" s="61"/>
+      <c r="B237" s="60"/>
       <c r="E237" s="7"/>
       <c r="G237" s="54"/>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="84" t="s">
+      <c r="A238" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="B238" s="84"/>
-      <c r="C238" s="84"/>
-      <c r="D238" s="84"/>
-      <c r="E238" s="84"/>
-      <c r="F238" s="84"/>
-      <c r="G238" s="84"/>
+      <c r="B238" s="82"/>
+      <c r="C238" s="82"/>
+      <c r="D238" s="82"/>
+      <c r="E238" s="82"/>
+      <c r="F238" s="82"/>
+      <c r="G238" s="82"/>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="4" t="s">
@@ -7225,7 +7242,7 @@
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="7"/>
-      <c r="G245" s="67" t="s">
+      <c r="G245" s="66" t="s">
         <v>783</v>
       </c>
     </row>
@@ -7239,7 +7256,7 @@
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="7"/>
-      <c r="G246" s="67" t="s">
+      <c r="G246" s="66" t="s">
         <v>784</v>
       </c>
     </row>
@@ -7272,8 +7289,8 @@
       <c r="D249" s="4"/>
       <c r="E249" s="7"/>
       <c r="F249" s="4"/>
-      <c r="G249" s="67" t="s">
-        <v>818</v>
+      <c r="G249" s="66" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="1" customFormat="1">
@@ -7335,15 +7352,15 @@
       <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="84" t="s">
+      <c r="A255" s="82" t="s">
         <v>405</v>
       </c>
-      <c r="B255" s="84"/>
-      <c r="C255" s="84"/>
-      <c r="D255" s="84"/>
-      <c r="E255" s="84"/>
-      <c r="F255" s="84"/>
-      <c r="G255" s="84"/>
+      <c r="B255" s="82"/>
+      <c r="C255" s="82"/>
+      <c r="D255" s="82"/>
+      <c r="E255" s="82"/>
+      <c r="F255" s="82"/>
+      <c r="G255" s="82"/>
     </row>
     <row r="256" spans="1:7" s="1" customFormat="1">
       <c r="A256" s="4" t="s">
@@ -7398,7 +7415,7 @@
         <v>628</v>
       </c>
       <c r="F259" s="3"/>
-      <c r="G259" s="80" t="s">
+      <c r="G259" s="91" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7419,7 +7436,7 @@
     </row>
     <row r="261" spans="1:7" s="1" customFormat="1">
       <c r="A261" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B261" s="53" t="s">
         <v>632</v>
@@ -7580,17 +7597,17 @@
       <c r="E273" s="34"/>
       <c r="G273" s="26"/>
     </row>
-    <row r="274" spans="1:9" s="76" customFormat="1">
-      <c r="A274" s="74" t="s">
+    <row r="274" spans="1:9" s="75" customFormat="1">
+      <c r="A274" s="73" t="s">
         <v>685</v>
       </c>
-      <c r="B274" s="74" t="s">
-        <v>792</v>
-      </c>
-      <c r="C274" s="74"/>
-      <c r="D274" s="74"/>
-      <c r="E274" s="75"/>
-      <c r="G274" s="77"/>
+      <c r="B274" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="C274" s="73"/>
+      <c r="D274" s="73"/>
+      <c r="E274" s="74"/>
+      <c r="G274" s="76"/>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="16" t="s">
@@ -7603,7 +7620,7 @@
       <c r="D275" s="16"/>
       <c r="E275" s="20"/>
       <c r="F275" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G275" s="18"/>
     </row>
@@ -7646,7 +7663,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="23"/>
       <c r="G279" s="54" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:9" s="1" customFormat="1" ht="34.5">
@@ -7685,7 +7702,7 @@
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="E282" s="20"/>
-      <c r="F282" s="81" t="s">
+      <c r="F282" s="92" t="s">
         <v>671</v>
       </c>
       <c r="G282" s="18"/>
@@ -7704,15 +7721,15 @@
         <v>672</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="76" customFormat="1">
-      <c r="A284" s="74" t="s">
-        <v>804</v>
-      </c>
-      <c r="B284" s="74" t="s">
-        <v>795</v>
-      </c>
-      <c r="E284" s="75"/>
-      <c r="G284" s="78"/>
+    <row r="284" spans="1:9" s="75" customFormat="1">
+      <c r="A284" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="B284" s="73" t="s">
+        <v>794</v>
+      </c>
+      <c r="E284" s="74"/>
+      <c r="G284" s="77"/>
     </row>
     <row r="285" spans="1:9" s="1" customFormat="1">
       <c r="A285" s="16" t="s">
@@ -7725,7 +7742,7 @@
       <c r="D285" s="19"/>
       <c r="E285" s="20"/>
       <c r="F285" s="57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G285" s="21"/>
     </row>
@@ -7742,7 +7759,7 @@
       <c r="F286" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="G286" s="82" t="s">
+      <c r="G286" s="93" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7757,7 +7774,7 @@
       <c r="D287" s="4"/>
       <c r="E287" s="7"/>
       <c r="F287" s="4"/>
-      <c r="G287" s="82" t="s">
+      <c r="G287" s="93" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7849,7 +7866,7 @@
       <c r="A295" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B295" s="60" t="s">
+      <c r="B295" s="59" t="s">
         <v>678</v>
       </c>
       <c r="C295" s="10"/>
@@ -7863,20 +7880,20 @@
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" s="1" customFormat="1">
-      <c r="B296" s="61"/>
+      <c r="B296" s="60"/>
       <c r="E296" s="7"/>
       <c r="G296" s="54"/>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="84" t="s">
+      <c r="A297" s="82" t="s">
         <v>502</v>
       </c>
-      <c r="B297" s="84"/>
-      <c r="C297" s="84"/>
-      <c r="D297" s="84"/>
-      <c r="E297" s="84"/>
-      <c r="F297" s="84"/>
-      <c r="G297" s="84"/>
+      <c r="B297" s="82"/>
+      <c r="C297" s="82"/>
+      <c r="D297" s="82"/>
+      <c r="E297" s="82"/>
+      <c r="F297" s="82"/>
+      <c r="G297" s="82"/>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="5" t="s">
@@ -7889,7 +7906,7 @@
       <c r="D298" s="5"/>
       <c r="E298" s="34"/>
       <c r="F298" s="34"/>
-      <c r="G298" s="89" t="s">
+      <c r="G298" s="84" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7904,7 +7921,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="34"/>
       <c r="F299" s="34"/>
-      <c r="G299" s="89"/>
+      <c r="G299" s="84"/>
     </row>
     <row r="300" spans="1:9" ht="34.5">
       <c r="A300" s="5" t="s">
@@ -7951,13 +7968,13 @@
       <c r="A303" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B303" s="72" t="s">
+      <c r="B303" s="71" t="s">
         <v>787</v>
       </c>
-      <c r="C303" s="73"/>
-      <c r="D303" s="73"/>
-      <c r="E303" s="72"/>
-      <c r="F303" s="72" t="s">
+      <c r="C303" s="72"/>
+      <c r="D303" s="72"/>
+      <c r="E303" s="71"/>
+      <c r="F303" s="94" t="s">
         <v>788</v>
       </c>
       <c r="G303" s="18"/>
@@ -7972,8 +7989,8 @@
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="7"/>
-      <c r="G304" s="42" t="s">
-        <v>791</v>
+      <c r="G304" s="92" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="34.5">
@@ -8090,7 +8107,7 @@
       <c r="F312" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="G312" s="12" t="s">
+      <c r="G312" s="92" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8125,15 +8142,15 @@
       </c>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="84" t="s">
+      <c r="A318" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="B318" s="84"/>
-      <c r="C318" s="84"/>
-      <c r="D318" s="84"/>
-      <c r="E318" s="84"/>
-      <c r="F318" s="84"/>
-      <c r="G318" s="84"/>
+      <c r="B318" s="82"/>
+      <c r="C318" s="82"/>
+      <c r="D318" s="82"/>
+      <c r="E318" s="82"/>
+      <c r="F318" s="82"/>
+      <c r="G318" s="82"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="5" t="s">
@@ -8240,7 +8257,7 @@
       <c r="F326" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="G326" s="12" t="s">
+      <c r="G326" s="95" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8282,15 +8299,15 @@
       <c r="E331" s="7"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="84" t="s">
+      <c r="A332" s="96" t="s">
         <v>604</v>
       </c>
-      <c r="B332" s="84"/>
-      <c r="C332" s="84"/>
-      <c r="D332" s="84"/>
-      <c r="E332" s="84"/>
-      <c r="F332" s="84"/>
-      <c r="G332" s="84"/>
+      <c r="B332" s="96"/>
+      <c r="C332" s="96"/>
+      <c r="D332" s="96"/>
+      <c r="E332" s="96"/>
+      <c r="F332" s="96"/>
+      <c r="G332" s="96"/>
     </row>
     <row r="333" spans="1:7" s="1" customFormat="1">
       <c r="A333" s="17"/>
@@ -8333,7 +8350,7 @@
       <c r="F335" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="G335" s="64" t="s">
+      <c r="G335" s="63" t="s">
         <v>711</v>
       </c>
     </row>
@@ -8367,7 +8384,7 @@
       <c r="F337" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="G337" s="64" t="s">
+      <c r="G337" s="63" t="s">
         <v>710</v>
       </c>
     </row>
@@ -8401,7 +8418,7 @@
       <c r="F339" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="G339" s="64" t="s">
+      <c r="G339" s="63" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8415,7 +8432,7 @@
       <c r="D340" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="F340" s="93" t="s">
+      <c r="F340" s="79" t="s">
         <v>597</v>
       </c>
       <c r="G340" s="42" t="s">
@@ -8435,7 +8452,7 @@
       <c r="F341" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="G341" s="64" t="s">
+      <c r="G341" s="63" t="s">
         <v>708</v>
       </c>
     </row>
@@ -8449,7 +8466,7 @@
       <c r="D342" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="F342" s="93" t="s">
+      <c r="F342" s="79" t="s">
         <v>597</v>
       </c>
       <c r="G342" s="42" t="s">
@@ -8469,7 +8486,7 @@
       <c r="F343" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G343" s="64" t="s">
+      <c r="G343" s="63" t="s">
         <v>707</v>
       </c>
     </row>
@@ -8483,7 +8500,7 @@
       <c r="D344" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="F344" s="93" t="s">
+      <c r="F344" s="79" t="s">
         <v>602</v>
       </c>
       <c r="G344" s="42" t="s">
@@ -8500,10 +8517,10 @@
         <v>142</v>
       </c>
       <c r="E345" s="19"/>
-      <c r="F345" s="94" t="s">
+      <c r="F345" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="G345" s="64" t="s">
+      <c r="G345" s="63" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8517,7 +8534,7 @@
       <c r="D346" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="F346" s="93" t="s">
+      <c r="F346" s="79" t="s">
         <v>597</v>
       </c>
       <c r="G346" s="42" t="s">
@@ -8537,7 +8554,7 @@
       <c r="F347" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="G347" s="64" t="s">
+      <c r="G347" s="63" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8574,7 +8591,7 @@
       <c r="F350" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="G350" s="64" t="s">
+      <c r="G350" s="63" t="s">
         <v>704</v>
       </c>
     </row>
@@ -8611,7 +8628,7 @@
       <c r="F353" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="G353" s="64" t="s">
+      <c r="G353" s="63" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8645,7 +8662,7 @@
       <c r="F355" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="G355" s="64" t="s">
+      <c r="G355" s="63" t="s">
         <v>702</v>
       </c>
     </row>
@@ -8677,7 +8694,7 @@
       <c r="F357" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="G357" s="64" t="s">
+      <c r="G357" s="63" t="s">
         <v>701</v>
       </c>
     </row>
@@ -8709,7 +8726,7 @@
       <c r="F359" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="G359" s="64" t="s">
+      <c r="G359" s="63" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8741,7 +8758,7 @@
       <c r="F361" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="G361" s="64" t="s">
+      <c r="G361" s="63" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8773,7 +8790,7 @@
       <c r="F363" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="G363" s="64" t="s">
+      <c r="G363" s="63" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8787,7 +8804,7 @@
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
       <c r="E364" s="10"/>
-      <c r="F364" s="95" t="s">
+      <c r="F364" s="81" t="s">
         <v>543</v>
       </c>
       <c r="G364" s="43" t="s">
@@ -8859,7 +8876,7 @@
       <c r="F370" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="G370" s="64" t="s">
+      <c r="G370" s="63" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8891,7 +8908,7 @@
       <c r="F372" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="G372" s="64" t="s">
+      <c r="G372" s="63" t="s">
         <v>695</v>
       </c>
     </row>
@@ -8923,7 +8940,7 @@
       <c r="F374" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="G374" s="64" t="s">
+      <c r="G374" s="63" t="s">
         <v>696</v>
       </c>
     </row>
@@ -8955,12 +8972,12 @@
       <c r="F376" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="G376" s="64" t="s">
+      <c r="G376" s="63" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="45.95" customHeight="1">
-      <c r="A377" s="62"/>
+      <c r="A377" s="61"/>
       <c r="G377" s="25" t="s">
         <v>785</v>
       </c>
@@ -8975,21 +8992,21 @@
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
       <c r="E378" s="10"/>
-      <c r="F378" s="67" t="s">
+      <c r="F378" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="G378" s="67"/>
+      <c r="G378" s="66"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="84" t="s">
+      <c r="A380" s="82" t="s">
         <v>590</v>
       </c>
-      <c r="B380" s="84"/>
-      <c r="C380" s="84"/>
-      <c r="D380" s="84"/>
-      <c r="E380" s="84"/>
-      <c r="F380" s="84"/>
-      <c r="G380" s="84"/>
+      <c r="B380" s="82"/>
+      <c r="C380" s="82"/>
+      <c r="D380" s="82"/>
+      <c r="E380" s="82"/>
+      <c r="F380" s="82"/>
+      <c r="G380" s="82"/>
     </row>
     <row r="381" spans="1:7" s="1" customFormat="1">
       <c r="A381" s="3"/>
@@ -9052,7 +9069,7 @@
       <c r="D385" s="5"/>
       <c r="E385" s="34"/>
       <c r="F385" s="34"/>
-      <c r="G385" s="88" t="s">
+      <c r="G385" s="83" t="s">
         <v>561</v>
       </c>
     </row>
@@ -9067,7 +9084,7 @@
       <c r="D386" s="5"/>
       <c r="E386" s="34"/>
       <c r="F386" s="34"/>
-      <c r="G386" s="88"/>
+      <c r="G386" s="83"/>
     </row>
     <row r="387" spans="1:7" s="1" customFormat="1">
       <c r="A387" s="5" t="s">
@@ -9119,7 +9136,7 @@
       <c r="F390" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G390" s="12" t="s">
+      <c r="G390" s="95" t="s">
         <v>564</v>
       </c>
     </row>
@@ -9285,7 +9302,7 @@
       <c r="F405" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G405" s="12" t="s">
+      <c r="G405" s="95" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9412,7 +9429,7 @@
       <c r="F416" s="34"/>
       <c r="G416" s="28"/>
     </row>
-    <row r="417" spans="1:7" ht="69">
+    <row r="417" spans="1:7" ht="86.25">
       <c r="A417" s="8" t="s">
         <v>338</v>
       </c>
@@ -9425,7 +9442,7 @@
       <c r="F417" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="G417" s="12" t="s">
+      <c r="G417" s="95" t="s">
         <v>570</v>
       </c>
     </row>
@@ -9473,21 +9490,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G385:G386"/>
+    <mergeCell ref="A380:G380"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="A332:G332"/>
+    <mergeCell ref="A318:G318"/>
     <mergeCell ref="A156:G156"/>
     <mergeCell ref="A238:G238"/>
     <mergeCell ref="A297:G297"/>
     <mergeCell ref="A196:G196"/>
     <mergeCell ref="A255:G255"/>
-    <mergeCell ref="G385:G386"/>
-    <mergeCell ref="A380:G380"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="A332:G332"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9507,257 +9524,257 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
       <c r="A2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25">
       <c r="A4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>430</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="C6" t="s">
         <v>807</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>804</v>
-      </c>
-      <c r="C6" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" t="s">
         <v>807</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" s="78"/>
+      <c r="C8" t="s">
         <v>807</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
       <c r="A9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" t="s">
         <v>807</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" t="s">
+        <v>806</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" t="s">
         <v>807</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" t="s">
         <v>807</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" t="s">
+        <v>806</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" t="s">
         <v>807</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" t="s">
+        <v>806</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" t="s">
         <v>807</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" t="s">
         <v>807</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" t="s">
+        <v>806</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" t="s">
         <v>807</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" t="s">
+        <v>806</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" t="s">
         <v>807</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" t="s">
         <v>807</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" t="s">
         <v>807</v>
-      </c>
-      <c r="B19" s="79"/>
-      <c r="C19" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" t="s">
         <v>807</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" t="s">
+        <v>806</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" t="s">
         <v>807</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
       <c r="A22" t="s">
+        <v>806</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" t="s">
         <v>807</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" t="s">
+        <v>806</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" t="s">
         <v>807</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" t="s">
+        <v>806</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" t="s">
         <v>807</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" t="s">
+        <v>806</v>
+      </c>
+      <c r="B25" s="78"/>
+      <c r="C25" t="s">
         <v>807</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" t="s">
+        <v>806</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" t="s">
         <v>807</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" t="s">
+        <v>806</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" t="s">
         <v>807</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -9783,18 +9800,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="50" t="s">
@@ -9860,11 +9877,11 @@
       <c r="A9" s="48"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="90" t="s">
         <v>583</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:3" ht="37.5">
       <c r="A11" s="50" t="s">
@@ -9901,8 +9918,8 @@
       <c r="A14" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
